--- a/xlsx/兰德公司_intext.xlsx
+++ b/xlsx/兰德公司_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="100">
   <si>
     <t>兰德公司</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%99%B8%E8%BB%8D%E8%88%AA%E7%A9%BA%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國陸軍航空軍</t>
-  </si>
-  <si>
-    <t>政策_政策_智庫_兰德公司</t>
+    <t>美国陆军航空军</t>
+  </si>
+  <si>
+    <t>政策_政策_智库_兰德公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%AB</t>
   </si>
   <si>
-    <t>智庫</t>
+    <t>智库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%8E%AB%E5%B0%BC%E5%8D%A1</t>
@@ -59,9 +59,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E5%BA%93</t>
   </si>
   <si>
-    <t>智库</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A</t>
   </si>
   <si>
@@ -125,13 +122,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%87%9F%E5%88%A9%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>非營利組織</t>
+    <t>非营利组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E5%9F%BA%E9%87%91%E6%9C%83</t>
   </si>
   <si>
-    <t>福特基金會</t>
+    <t>福特基金会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%87%E7%88%B1%E5%8D%9A%E5%A3%AB</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E5%A5%A7%E5%B0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>保羅·奧尼爾</t>
+    <t>保罗·奥尼尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E5%B0%94%C2%B7%E8%89%BE%E5%B0%94%E6%96%AF%E4%BC%AF%E6%A0%BC</t>
@@ -299,7 +296,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%AA%E6%A0%BC%E9%BA%97%E7%89%B9%C2%B7%E7%B1%B3%E5%BE%B7</t>
   </si>
   <si>
-    <t>瑪格麗特·米德</t>
+    <t>玛格丽特·米德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%89%B9%C2%B7%E8%92%99%E4%BB%A3%E5%B0%94</t>
@@ -862,7 +859,7 @@
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G7" t="n">
         <v>4</v>
@@ -888,10 +885,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -917,10 +914,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -946,10 +943,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -975,10 +972,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1004,10 +1001,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -1033,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1062,10 +1059,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1091,10 +1088,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1120,10 +1117,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1149,10 +1146,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1178,10 +1175,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1207,10 +1204,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1236,10 +1233,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -1265,10 +1262,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1294,10 +1291,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>2</v>
@@ -1323,10 +1320,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1352,10 +1349,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1381,10 +1378,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1410,10 +1407,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1439,10 +1436,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1468,10 +1465,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1497,10 +1494,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1526,10 +1523,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1555,10 +1552,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1584,10 +1581,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -1613,10 +1610,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1642,10 +1639,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1671,10 +1668,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1700,10 +1697,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1729,10 +1726,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1758,10 +1755,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -1787,10 +1784,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1816,10 +1813,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1845,10 +1842,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1874,10 +1871,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1903,10 +1900,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -1932,10 +1929,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -1961,10 +1958,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -1990,10 +1987,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2019,10 +2016,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2048,10 +2045,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2077,10 +2074,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2106,10 +2103,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
